--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
-  </si>
-  <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}org-1:組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -2008,13 +2004,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>31</v>
@@ -2025,10 +2021,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2039,28 +2035,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2110,13 +2106,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2139,10 +2135,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2153,25 +2149,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2222,19 +2218,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2251,10 +2247,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2265,28 +2261,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2336,19 +2332,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2365,10 +2361,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2379,7 +2375,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2391,16 +2387,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2426,43 +2422,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2479,21 +2475,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2505,16 +2501,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2564,25 +2560,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2593,14 +2589,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2619,16 +2615,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2678,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2696,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2707,10 +2703,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2733,13 +2729,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2778,17 +2774,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2800,7 +2796,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2817,13 +2813,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2833,7 +2829,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2845,16 +2841,16 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2904,7 +2900,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2913,10 +2909,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2933,13 +2929,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2949,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2961,16 +2957,16 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3020,7 +3016,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3029,10 +3025,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3049,13 +3045,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3065,7 +3061,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3077,16 +3073,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3136,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3145,10 +3141,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3165,14 +3161,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3185,25 +3181,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3252,7 +3248,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3264,13 +3260,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3281,10 +3277,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3304,22 +3300,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3356,17 +3352,17 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3375,30 +3371,30 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3409,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3421,13 +3417,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3478,25 +3474,25 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3507,14 +3503,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3533,16 +3529,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3580,19 +3576,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3604,13 +3600,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3621,10 +3617,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3635,31 +3631,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3684,49 +3680,49 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3737,10 +3733,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3751,31 +3747,31 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3800,49 +3796,49 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3853,10 +3849,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3867,31 +3863,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3940,28 +3936,28 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3969,10 +3965,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,28 +3979,28 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4054,28 +4050,28 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -4083,10 +4079,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4097,25 +4093,25 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4166,28 +4162,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4195,10 +4191,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4209,28 +4205,28 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4280,28 +4276,28 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4309,13 +4305,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -4334,22 +4330,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4398,7 +4394,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4407,30 +4403,30 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4441,7 +4437,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4453,13 +4449,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4510,25 +4506,25 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4539,14 +4535,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4565,16 +4561,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4612,19 +4608,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4636,13 +4632,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4653,10 +4649,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4667,31 +4663,31 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4716,49 +4712,49 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4769,10 +4765,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4783,31 +4779,31 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4832,49 +4828,49 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4885,10 +4881,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4896,41 +4892,41 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4972,28 +4968,28 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5001,10 +4997,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5015,28 +5011,28 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5086,28 +5082,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5115,10 +5111,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5129,25 +5125,25 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5198,28 +5194,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5227,10 +5223,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5241,28 +5237,28 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5312,28 +5308,28 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5341,13 +5337,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5366,22 +5362,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5430,7 +5426,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5439,30 +5435,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5473,7 +5469,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5485,13 +5481,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5542,25 +5538,25 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5571,14 +5567,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5597,16 +5593,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5644,19 +5640,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5668,13 +5664,13 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5685,10 +5681,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5699,31 +5695,31 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5748,49 +5744,49 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5801,10 +5797,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5815,31 +5811,31 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5864,49 +5860,49 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5917,10 +5913,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5928,41 +5924,41 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -6004,28 +6000,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6033,10 +6029,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6047,28 +6043,28 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6118,28 +6114,28 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6147,10 +6143,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6161,25 +6157,25 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6230,28 +6226,28 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6259,10 +6255,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6273,28 +6269,28 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6344,28 +6340,28 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6373,10 +6369,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6387,114 +6383,114 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="O40" t="s" s="2">
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" t="s" s="2">
+      <c r="R40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6514,22 +6510,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6554,14 +6550,14 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6578,7 +6574,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6590,27 +6586,27 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6621,31 +6617,31 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6694,28 +6690,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6723,10 +6719,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6749,19 +6745,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6810,7 +6806,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6822,13 +6818,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6839,10 +6835,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6865,19 +6861,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6926,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6935,19 +6931,19 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6955,10 +6951,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6969,7 +6965,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6981,13 +6977,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7038,25 +7034,25 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7067,14 +7063,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7093,16 +7089,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7140,19 +7136,19 @@
         <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AF46" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7164,13 +7160,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7181,10 +7177,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7195,28 +7191,28 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7242,52 +7238,52 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
+      <c r="AJ47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7295,10 +7291,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7309,31 +7305,31 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7382,28 +7378,28 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7411,10 +7407,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7425,31 +7421,31 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7474,52 +7470,52 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7527,10 +7523,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7541,28 +7537,28 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7612,25 +7608,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7641,10 +7637,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7655,28 +7651,28 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7726,28 +7722,28 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7755,10 +7751,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7781,19 +7777,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7842,7 +7838,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7851,19 +7847,19 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7871,10 +7867,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7885,7 +7881,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7897,13 +7893,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7954,25 +7950,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7983,14 +7979,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8009,16 +8005,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8056,19 +8052,19 @@
         <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8080,13 +8076,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8097,10 +8093,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8111,31 +8107,31 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8160,52 +8156,52 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="AA55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8213,10 +8209,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8227,28 +8223,28 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8274,49 +8270,49 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z56" t="s" s="2">
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AA56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF56" t="s" s="2">
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AL56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8327,10 +8323,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8341,31 +8337,31 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8378,61 +8374,61 @@
         <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="U57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" t="s" s="2">
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8443,10 +8439,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8466,19 +8462,19 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8492,43 +8488,43 @@
         <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8540,16 +8536,16 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8557,42 +8553,42 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8606,64 +8602,64 @@
         <v>38</v>
       </c>
       <c r="T59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="U59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF59" t="s" s="2">
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8671,42 +8667,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8756,25 +8752,25 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8785,42 +8781,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8834,64 +8830,64 @@
         <v>38</v>
       </c>
       <c r="T61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="U61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF61" t="s" s="2">
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8899,42 +8895,42 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8948,64 +8944,64 @@
         <v>38</v>
       </c>
       <c r="T62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9013,10 +9009,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9027,28 +9023,28 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9098,28 +9094,28 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9127,10 +9123,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9141,31 +9137,31 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9214,28 +9210,28 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AL64" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9243,10 +9239,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9257,31 +9253,31 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9330,28 +9326,28 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9359,10 +9355,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9385,19 +9381,19 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9446,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9458,13 +9454,13 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9475,10 +9471,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9489,7 +9485,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9501,13 +9497,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9558,25 +9554,25 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9587,14 +9583,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9613,16 +9609,16 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9672,7 +9668,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9684,13 +9680,13 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9701,14 +9697,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9721,25 +9717,25 @@
         <v>38</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="N69" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9788,7 +9784,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9800,13 +9796,13 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9817,10 +9813,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9831,7 +9827,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9843,17 +9839,17 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -9878,49 +9874,49 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
@@ -9931,10 +9927,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9945,7 +9941,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9957,19 +9953,19 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10018,28 +10014,28 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10047,10 +10043,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10073,17 +10069,17 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10132,7 +10128,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10144,13 +10140,13 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10161,10 +10157,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10175,7 +10171,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10187,17 +10183,17 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10246,25 +10242,25 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
@@ -10275,10 +10271,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10301,19 +10297,19 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10362,7 +10358,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10374,13 +10370,13 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
